--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Ngày</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>3h30</t>
+  </si>
+  <si>
+    <t>1h00</t>
+  </si>
+  <si>
+    <t>10h15</t>
+  </si>
+  <si>
+    <t>2h45</t>
   </si>
 </sst>
 </file>
@@ -376,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +455,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42683</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Ngày</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>2h45</t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>3h00</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -99,12 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,8 +433,8 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -467,6 +477,20 @@
       </c>
       <c r="D5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42654</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Ngày</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>9h30</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +496,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42685</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Ngày</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>9h30</t>
+  </si>
+  <si>
+    <t>9h15</t>
+  </si>
+  <si>
+    <t>4h15</t>
+  </si>
+  <si>
+    <t>Số Phút</t>
   </si>
 </sst>
 </file>
@@ -82,8 +91,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,13 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +430,7 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +443,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42677</v>
       </c>
@@ -439,8 +460,11 @@
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42678</v>
       </c>
@@ -453,8 +477,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42681</v>
       </c>
@@ -467,8 +494,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42683</v>
       </c>
@@ -481,8 +511,11 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42654</v>
       </c>
@@ -495,8 +528,11 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42685</v>
       </c>
@@ -508,6 +544,32 @@
       </c>
       <c r="D7" t="s">
         <v>10</v>
+      </c>
+      <c r="F7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42689</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <f>SUM(F2:F8)</f>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Ngày</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Số Phút</t>
+  </si>
+  <si>
+    <t>15/11/2016</t>
+  </si>
+  <si>
+    <t>14/11/2016</t>
+  </si>
+  <si>
+    <t>12h45</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,8 +559,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>42689</v>
+      <c r="A8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -566,10 +575,27 @@
         <v>255</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>150</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="4">
-        <f>SUM(F2:F8)</f>
-        <v>1290</v>
+        <f>SUM(F2:F13)</f>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Ngày</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>12h45</t>
+  </si>
+  <si>
+    <t>17/11/2016</t>
+  </si>
+  <si>
+    <t>9h45</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,10 +598,27 @@
         <v>150</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>255</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="4">
         <f>SUM(F2:F13)</f>
-        <v>1440</v>
+        <v>1695</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Ngày</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>9h45</t>
+  </si>
+  <si>
+    <t>16/11/2016</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +603,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -613,12 +616,29 @@
       </c>
       <c r="F10">
         <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="4">
         <f>SUM(F2:F13)</f>
-        <v>1695</v>
+        <v>1905</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Ngày</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>16/11/2016</t>
+  </si>
+  <si>
+    <t>21/11/2016</t>
+  </si>
+  <si>
+    <t>11h15</t>
+  </si>
+  <si>
+    <t>1h45</t>
   </si>
 </sst>
 </file>
@@ -437,7 +446,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +644,27 @@
         <v>210</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>105</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="4">
         <f>SUM(F2:F13)</f>
-        <v>1905</v>
+        <v>2010</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Ngày</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>1h45</t>
+  </si>
+  <si>
+    <t>22/11/2016</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,10 +664,33 @@
         <v>105</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="4">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
         <f>SUM(F2:F13)</f>
-        <v>2010</v>
+        <v>2040</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Ngày</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>22/11/2016</t>
+  </si>
+  <si>
+    <t>11h30</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,16 +675,16 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,8 +695,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F16" s="4">
-        <f>SUM(F2:F13)</f>
-        <v>2040</v>
+        <f>SUM(F2:F15)</f>
+        <v>2070</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -114,10 +114,10 @@
     <t>22/11/2016</t>
   </si>
   <si>
-    <t>11h30</t>
-  </si>
-  <si>
-    <t>1h</t>
+    <t>11h50</t>
+  </si>
+  <si>
+    <t>1h20</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F16" s="4">
         <f>SUM(F2:F15)</f>
-        <v>2070</v>
+        <v>2090</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Duy.xlsx
+++ b/Document/Duy.xlsx
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42677</v>
       </c>
@@ -500,7 +500,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42678</v>
       </c>
@@ -517,7 +517,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42681</v>
       </c>
@@ -534,7 +534,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42683</v>
       </c>
@@ -551,7 +551,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42654</v>
       </c>
@@ -568,7 +568,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42685</v>
       </c>
@@ -585,7 +585,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -602,7 +602,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -619,7 +619,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -636,7 +636,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -653,7 +653,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -670,7 +670,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -687,16 +687,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="4">
         <f>SUM(F2:F15)</f>
         <v>2090</v>
+      </c>
+      <c r="G16" s="4">
+        <f>(F16/60)*150</f>
+        <v>5225</v>
       </c>
     </row>
   </sheetData>
